--- a/test/static/multiple_file_language_option_conversion/BFR5-Selection-v2-jef.xlsx
+++ b/test/static/multiple_file_language_option_conversion/BFR5-Selection-v2-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="12460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28260"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1857,9 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IK47"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -1937,7 +1937,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:245" s="50" customFormat="1" ht="84">
+    <row r="2" spans="1:245" s="50" customFormat="1" ht="13" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>50</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="Y2" s="49"/>
       <c r="Z2" s="49"/>
     </row>
-    <row r="3" spans="1:245" s="52" customFormat="1" ht="42">
+    <row r="3" spans="1:245" s="52" customFormat="1" ht="13" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="AE3" s="53"/>
       <c r="AF3" s="53"/>
     </row>
-    <row r="4" spans="1:245" s="52" customFormat="1" ht="84">
+    <row r="4" spans="1:245" s="52" customFormat="1" ht="13" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="AE4" s="53"/>
       <c r="AF4" s="53"/>
     </row>
-    <row r="5" spans="1:245" s="55" customFormat="1" ht="98">
+    <row r="5" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="AE5" s="56"/>
       <c r="AF5" s="56"/>
     </row>
-    <row r="6" spans="1:245" s="55" customFormat="1" ht="14">
+    <row r="6" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
     </row>
-    <row r="7" spans="1:245" s="55" customFormat="1" ht="28">
+    <row r="7" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="AE7" s="56"/>
       <c r="AF7" s="56"/>
     </row>
-    <row r="8" spans="1:245" s="55" customFormat="1" ht="14">
+    <row r="8" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="AE8" s="56"/>
       <c r="AF8" s="56"/>
     </row>
-    <row r="9" spans="1:245" s="55" customFormat="1" ht="154">
+    <row r="9" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="AE9" s="56"/>
       <c r="AF9" s="56"/>
     </row>
-    <row r="10" spans="1:245" s="55" customFormat="1" ht="98">
+    <row r="10" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="58" t="s">
         <v>50</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="IJ10" s="61"/>
       <c r="IK10" s="61"/>
     </row>
-    <row r="11" spans="1:245" s="55" customFormat="1" ht="14">
+    <row r="11" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A11" s="55" t="s">
         <v>139</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:245" s="55" customFormat="1" ht="42">
+    <row r="12" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A12" s="55" t="s">
         <v>141</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:245" s="55" customFormat="1" ht="42">
+    <row r="13" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A13" s="55" t="s">
         <v>143</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:245" s="55" customFormat="1" ht="42">
+    <row r="14" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A14" s="55" t="s">
         <v>145</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:245" s="55" customFormat="1" ht="28">
+    <row r="15" spans="1:245" s="55" customFormat="1" ht="13" customHeight="1">
       <c r="A15" s="55" t="s">
         <v>147</v>
       </c>
@@ -3656,11 +3656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:E31"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
